--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2288.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2288.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.128312409355266</v>
+        <v>1.181459307670593</v>
       </c>
       <c r="B1">
-        <v>3.548991754563379</v>
+        <v>2.400239706039429</v>
       </c>
       <c r="C1">
-        <v>3.691675776372233</v>
+        <v>3.711603164672852</v>
       </c>
       <c r="D1">
-        <v>3.708611280354897</v>
+        <v>2.079583406448364</v>
       </c>
       <c r="E1">
-        <v>1.212057433638738</v>
+        <v>1.202973961830139</v>
       </c>
     </row>
   </sheetData>
